--- a/proof-of-concept-libraries/template_minimal.xlsx
+++ b/proof-of-concept-libraries/template_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/proof-of-concept-libraries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2364A3-ADDF-E847-A7FA-06966D9F9C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1418639F-C85F-604D-8425-63465BA0A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21740" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21740" windowHeight="16380" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="8" r:id="rId1"/>
@@ -3558,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974D6FDA-E213-EB43-BFF9-649EFEA0E858}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -15862,8 +15862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8331A7E-099A-5C4B-BDD9-5519D2C3E2A2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
